--- a/assert/homeelife/230523.xlsx
+++ b/assert/homeelife/230523.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maginawin/Developer/Nodejs/AppStrings_Node/assert/homeelife/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9BD8B97-5B97-FF4C-BC9A-6EEAC48AF3BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71462C88-8E69-5A4E-B60C-AB31A1BCDD44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8340" yWindow="500" windowWidth="30320" windowHeight="26900" xr2:uid="{764D4EBB-1143-2545-A37A-3DD2429166B0}"/>
   </bookViews>
@@ -98,10 +98,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>重置所有</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>自然光尚未设置</t>
   </si>
   <si>
@@ -197,6 +193,10 @@
   </si>
   <si>
     <t>没有灯。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重置所有模式</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -574,8 +574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F52272-7F1B-154D-B494-8854E14F3488}">
   <dimension ref="A2:B215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -621,7 +621,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17">
@@ -629,7 +629,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17">
@@ -637,7 +637,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="17">
@@ -645,7 +645,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="17">
@@ -653,7 +653,7 @@
         <v>9</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17">
@@ -661,7 +661,7 @@
         <v>10</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="17">
@@ -669,7 +669,7 @@
         <v>11</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="17">
@@ -677,7 +677,7 @@
         <v>12</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="17">
@@ -685,23 +685,23 @@
         <v>13</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="28">
       <c r="A28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="28">
       <c r="A30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="17">
@@ -709,7 +709,7 @@
         <v>14</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="42">
@@ -717,71 +717,71 @@
         <v>15</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="17">
       <c r="A36" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="17">
       <c r="A38" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="17">
       <c r="A40" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="28">
       <c r="A42" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="17">
       <c r="A44" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="17">
       <c r="A46" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="17">
       <c r="A48" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="17">
       <c r="A50" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" spans="1:2">
